--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.203876533473745</v>
+        <v>0.2711976666666667</v>
       </c>
       <c r="H2">
-        <v>0.203876533473745</v>
+        <v>0.813593</v>
       </c>
       <c r="I2">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="J2">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.688881933158761</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N2">
-        <v>0.688881933158761</v>
+        <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P2">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q2">
-        <v>0.1404468605051003</v>
+        <v>0.05554544049755556</v>
       </c>
       <c r="R2">
-        <v>0.1404468605051003</v>
+        <v>0.499908964478</v>
       </c>
       <c r="S2">
-        <v>0.04861463278391052</v>
+        <v>0.01274808425166286</v>
       </c>
       <c r="T2">
-        <v>0.04861463278391052</v>
+        <v>0.01274808425166286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.203876533473745</v>
+        <v>0.2711976666666667</v>
       </c>
       <c r="H3">
-        <v>0.203876533473745</v>
+        <v>0.813593</v>
       </c>
       <c r="I3">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="J3">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643020461985116</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N3">
-        <v>0.643020461985116</v>
+        <v>2.112422</v>
       </c>
       <c r="O3">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P3">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q3">
-        <v>0.1310967827422115</v>
+        <v>0.1909613058051111</v>
       </c>
       <c r="R3">
-        <v>0.1310967827422115</v>
+        <v>1.718651752246</v>
       </c>
       <c r="S3">
-        <v>0.04537817313426715</v>
+        <v>0.04382701430404978</v>
       </c>
       <c r="T3">
-        <v>0.04537817313426715</v>
+        <v>0.04382701430404978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.203876533473745</v>
+        <v>0.2711976666666667</v>
       </c>
       <c r="H4">
-        <v>0.203876533473745</v>
+        <v>0.813593</v>
       </c>
       <c r="I4">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="J4">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.42642307293178</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N4">
-        <v>1.42642307293178</v>
+        <v>2.190025</v>
       </c>
       <c r="O4">
-        <v>0.5171337064610155</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P4">
-        <v>0.5171337064610155</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q4">
-        <v>0.2908141913762982</v>
+        <v>0.1979765566472222</v>
       </c>
       <c r="R4">
-        <v>0.2908141913762982</v>
+        <v>1.781789009825</v>
       </c>
       <c r="S4">
-        <v>0.1006631623609358</v>
+        <v>0.04543706560584324</v>
       </c>
       <c r="T4">
-        <v>0.1006631623609358</v>
+        <v>0.04543706560584325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.45608127587475</v>
+        <v>0.2711976666666667</v>
       </c>
       <c r="H5">
-        <v>0.45608127587475</v>
+        <v>0.813593</v>
       </c>
       <c r="I5">
-        <v>0.4354544432197039</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="J5">
-        <v>0.4354544432197039</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.688881933158761</v>
+        <v>1.644357666666667</v>
       </c>
       <c r="N5">
-        <v>0.688881933158761</v>
+        <v>4.933073</v>
       </c>
       <c r="O5">
-        <v>0.2497464280889806</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="P5">
-        <v>0.2497464280889806</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="Q5">
-        <v>0.3141861510021119</v>
+        <v>0.4459459623654445</v>
       </c>
       <c r="R5">
-        <v>0.3141861510021119</v>
+        <v>4.013513661289</v>
       </c>
       <c r="S5">
-        <v>0.1087531917895969</v>
+        <v>0.1023478551794678</v>
       </c>
       <c r="T5">
-        <v>0.1087531917895969</v>
+        <v>0.1023478551794678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.45608127587475</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H6">
-        <v>0.45608127587475</v>
+        <v>1.533021</v>
       </c>
       <c r="I6">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="J6">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.643020461985116</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N6">
-        <v>0.643020461985116</v>
+        <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.2331198654500038</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P6">
-        <v>0.2331198654500038</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q6">
-        <v>0.2932695927157429</v>
+        <v>0.1046620690406667</v>
       </c>
       <c r="R6">
-        <v>0.2932695927157429</v>
+        <v>0.9419586213660002</v>
       </c>
       <c r="S6">
-        <v>0.1015130812129837</v>
+        <v>0.02402070920911126</v>
       </c>
       <c r="T6">
-        <v>0.1015130812129837</v>
+        <v>0.02402070920911126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.45608127587475</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H7">
-        <v>0.45608127587475</v>
+        <v>1.533021</v>
       </c>
       <c r="I7">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="J7">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42642307293178</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N7">
-        <v>1.42642307293178</v>
+        <v>2.112422</v>
       </c>
       <c r="O7">
-        <v>0.5171337064610155</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P7">
-        <v>0.5171337064610155</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q7">
-        <v>0.6505648550399078</v>
+        <v>0.3598208096513334</v>
       </c>
       <c r="R7">
-        <v>0.6505648550399078</v>
+        <v>3.238387286862</v>
       </c>
       <c r="S7">
-        <v>0.2251881702171233</v>
+        <v>0.0825815036454452</v>
       </c>
       <c r="T7">
-        <v>0.2251881702171233</v>
+        <v>0.0825815036454452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.149581067623584</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H8">
-        <v>0.149581067623584</v>
+        <v>1.533021</v>
       </c>
       <c r="I8">
-        <v>0.14281608117612</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="J8">
-        <v>0.14281608117612</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.688881933158761</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N8">
-        <v>0.688881933158761</v>
+        <v>2.190025</v>
       </c>
       <c r="O8">
-        <v>0.2497464280889806</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P8">
-        <v>0.2497464280889806</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q8">
-        <v>0.1030436950284859</v>
+        <v>0.3730393683916667</v>
       </c>
       <c r="R8">
-        <v>0.1030436950284859</v>
+        <v>3.357354315525</v>
       </c>
       <c r="S8">
-        <v>0.03566780614740186</v>
+        <v>0.08561525941365698</v>
       </c>
       <c r="T8">
-        <v>0.03566780614740186</v>
+        <v>0.08561525941365698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.149581067623584</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H9">
-        <v>0.149581067623584</v>
+        <v>1.533021</v>
       </c>
       <c r="I9">
-        <v>0.14281608117612</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="J9">
-        <v>0.14281608117612</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.643020461985116</v>
+        <v>1.644357666666667</v>
       </c>
       <c r="N9">
-        <v>0.643020461985116</v>
+        <v>4.933073</v>
       </c>
       <c r="O9">
-        <v>0.2331198654500038</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="P9">
-        <v>0.2331198654500038</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="Q9">
-        <v>0.09618368720754386</v>
+        <v>0.8402782781703336</v>
       </c>
       <c r="R9">
-        <v>0.09618368720754386</v>
+        <v>7.562504503533002</v>
       </c>
       <c r="S9">
-        <v>0.03329326562787391</v>
+        <v>0.1928500015303511</v>
       </c>
       <c r="T9">
-        <v>0.03329326562787391</v>
+        <v>0.1928500015303511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.149581067623584</v>
+        <v>0.181472</v>
       </c>
       <c r="H10">
-        <v>0.149581067623584</v>
+        <v>0.544416</v>
       </c>
       <c r="I10">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="J10">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.42642307293178</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N10">
-        <v>1.42642307293178</v>
+        <v>0.614446</v>
       </c>
       <c r="O10">
-        <v>0.5171337064610155</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P10">
-        <v>0.5171337064610155</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q10">
-        <v>0.2133658861320491</v>
+        <v>0.03716824817066667</v>
       </c>
       <c r="R10">
-        <v>0.2133658861320491</v>
+        <v>0.334514233536</v>
       </c>
       <c r="S10">
-        <v>0.07385500940084419</v>
+        <v>0.008530384400988319</v>
       </c>
       <c r="T10">
-        <v>0.07385500940084419</v>
+        <v>0.008530384400988319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0758980719371771</v>
+        <v>0.181472</v>
       </c>
       <c r="H11">
-        <v>0.0758980719371771</v>
+        <v>0.544416</v>
       </c>
       <c r="I11">
-        <v>0.07246548894923016</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="J11">
-        <v>0.07246548894923016</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.688881933158761</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N11">
-        <v>0.688881933158761</v>
+        <v>2.112422</v>
       </c>
       <c r="O11">
-        <v>0.2497464280889806</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P11">
-        <v>0.2497464280889806</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q11">
-        <v>0.05228481051910527</v>
+        <v>0.1277818150613333</v>
       </c>
       <c r="R11">
-        <v>0.05228481051910527</v>
+        <v>1.150036335552</v>
       </c>
       <c r="S11">
-        <v>0.01809799702479173</v>
+        <v>0.02932685976815627</v>
       </c>
       <c r="T11">
-        <v>0.01809799702479173</v>
+        <v>0.02932685976815627</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0758980719371771</v>
+        <v>0.181472</v>
       </c>
       <c r="H12">
-        <v>0.0758980719371771</v>
+        <v>0.544416</v>
       </c>
       <c r="I12">
-        <v>0.07246548894923016</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="J12">
-        <v>0.07246548894923016</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.643020461985116</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N12">
-        <v>0.643020461985116</v>
+        <v>2.190025</v>
       </c>
       <c r="O12">
-        <v>0.2331198654500038</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P12">
-        <v>0.2331198654500038</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q12">
-        <v>0.04880401328082318</v>
+        <v>0.1324760722666667</v>
       </c>
       <c r="R12">
-        <v>0.04880401328082318</v>
+        <v>1.1922846504</v>
       </c>
       <c r="S12">
-        <v>0.01689314503361327</v>
+        <v>0.03040422607971155</v>
       </c>
       <c r="T12">
-        <v>0.01689314503361327</v>
+        <v>0.03040422607971155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0758980719371771</v>
+        <v>0.181472</v>
       </c>
       <c r="H13">
-        <v>0.0758980719371771</v>
+        <v>0.544416</v>
       </c>
       <c r="I13">
-        <v>0.07246548894923016</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="J13">
-        <v>0.07246548894923016</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.42642307293178</v>
+        <v>1.644357666666667</v>
       </c>
       <c r="N13">
-        <v>1.42642307293178</v>
+        <v>4.933073</v>
       </c>
       <c r="O13">
-        <v>0.5171337064610155</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="P13">
-        <v>0.5171337064610155</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="Q13">
-        <v>0.1082627610022254</v>
+        <v>0.2984048744853334</v>
       </c>
       <c r="R13">
-        <v>0.1082627610022254</v>
+        <v>2.685643870368</v>
       </c>
       <c r="S13">
-        <v>0.03747434689082516</v>
+        <v>0.0684860979941877</v>
       </c>
       <c r="T13">
-        <v>0.03747434689082516</v>
+        <v>0.0684860979941877</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.161931571440504</v>
+        <v>0.08639666666666668</v>
       </c>
       <c r="H14">
-        <v>0.161931571440504</v>
+        <v>0.25919</v>
       </c>
       <c r="I14">
-        <v>0.1546080183758323</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="J14">
-        <v>0.1546080183758323</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.688881933158761</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N14">
-        <v>0.688881933158761</v>
+        <v>0.614446</v>
       </c>
       <c r="O14">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P14">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q14">
-        <v>0.1115517339733704</v>
+        <v>0.01769536208222222</v>
       </c>
       <c r="R14">
-        <v>0.1115517339733704</v>
+        <v>0.15925825874</v>
       </c>
       <c r="S14">
-        <v>0.03861280034327959</v>
+        <v>0.004061214830005295</v>
       </c>
       <c r="T14">
-        <v>0.03861280034327959</v>
+        <v>0.004061214830005295</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.161931571440504</v>
+        <v>0.08639666666666668</v>
       </c>
       <c r="H15">
-        <v>0.161931571440504</v>
+        <v>0.25919</v>
       </c>
       <c r="I15">
-        <v>0.1546080183758323</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="J15">
-        <v>0.1546080183758323</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.643020461985116</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N15">
-        <v>0.643020461985116</v>
+        <v>2.112422</v>
       </c>
       <c r="O15">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P15">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q15">
-        <v>0.1041253138776487</v>
+        <v>0.06083540646444445</v>
       </c>
       <c r="R15">
-        <v>0.1041253138776487</v>
+        <v>0.5475186581800001</v>
       </c>
       <c r="S15">
-        <v>0.03604220044126574</v>
+        <v>0.01396217007455406</v>
       </c>
       <c r="T15">
-        <v>0.03604220044126574</v>
+        <v>0.01396217007455406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.08639666666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.25919</v>
+      </c>
+      <c r="I16">
+        <v>0.06510389520681709</v>
+      </c>
+      <c r="J16">
+        <v>0.06510389520681709</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7300083333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.190025</v>
+      </c>
+      <c r="O16">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="P16">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="Q16">
+        <v>0.06307028663888889</v>
+      </c>
+      <c r="R16">
+        <v>0.56763257975</v>
+      </c>
+      <c r="S16">
+        <v>0.01447509139628599</v>
+      </c>
+      <c r="T16">
+        <v>0.01447509139628599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.08639666666666668</v>
+      </c>
+      <c r="H17">
+        <v>0.25919</v>
+      </c>
+      <c r="I17">
+        <v>0.06510389520681709</v>
+      </c>
+      <c r="J17">
+        <v>0.06510389520681709</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.644357666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.933073</v>
+      </c>
+      <c r="O17">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="P17">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="Q17">
+        <v>0.1420670212077778</v>
+      </c>
+      <c r="R17">
+        <v>1.27860319087</v>
+      </c>
+      <c r="S17">
+        <v>0.03260541890597174</v>
+      </c>
+      <c r="T17">
+        <v>0.03260541890597174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.161931571440504</v>
-      </c>
-      <c r="H16">
-        <v>0.161931571440504</v>
-      </c>
-      <c r="I16">
-        <v>0.1546080183758323</v>
-      </c>
-      <c r="J16">
-        <v>0.1546080183758323</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.42642307293178</v>
-      </c>
-      <c r="N16">
-        <v>1.42642307293178</v>
-      </c>
-      <c r="O16">
-        <v>0.5171337064610155</v>
-      </c>
-      <c r="P16">
-        <v>0.5171337064610155</v>
-      </c>
-      <c r="Q16">
-        <v>0.2309829297388357</v>
-      </c>
-      <c r="R16">
-        <v>0.2309829297388357</v>
-      </c>
-      <c r="S16">
-        <v>0.07995301759128694</v>
-      </c>
-      <c r="T16">
-        <v>0.07995301759128694</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.276985</v>
+      </c>
+      <c r="H18">
+        <v>0.830955</v>
+      </c>
+      <c r="I18">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="J18">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2048153333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.614446</v>
+      </c>
+      <c r="O18">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="P18">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="Q18">
+        <v>0.05673077510333333</v>
+      </c>
+      <c r="R18">
+        <v>0.5105769759300001</v>
+      </c>
+      <c r="S18">
+        <v>0.01302012720038215</v>
+      </c>
+      <c r="T18">
+        <v>0.01302012720038215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.276985</v>
+      </c>
+      <c r="H19">
+        <v>0.830955</v>
+      </c>
+      <c r="I19">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="J19">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7041406666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.112422</v>
+      </c>
+      <c r="O19">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="P19">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="Q19">
+        <v>0.1950364025566667</v>
+      </c>
+      <c r="R19">
+        <v>1.75532762301</v>
+      </c>
+      <c r="S19">
+        <v>0.04476227876963258</v>
+      </c>
+      <c r="T19">
+        <v>0.04476227876963258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.276985</v>
+      </c>
+      <c r="H20">
+        <v>0.830955</v>
+      </c>
+      <c r="I20">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="J20">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7300083333333333</v>
+      </c>
+      <c r="N20">
+        <v>2.190025</v>
+      </c>
+      <c r="O20">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="P20">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="Q20">
+        <v>0.2022013582083333</v>
+      </c>
+      <c r="R20">
+        <v>1.819812223875</v>
+      </c>
+      <c r="S20">
+        <v>0.04640668841853785</v>
+      </c>
+      <c r="T20">
+        <v>0.04640668841853787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.276985</v>
+      </c>
+      <c r="H21">
+        <v>0.830955</v>
+      </c>
+      <c r="I21">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="J21">
+        <v>0.2087210434105509</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.644357666666667</v>
+      </c>
+      <c r="N21">
+        <v>4.933073</v>
+      </c>
+      <c r="O21">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="P21">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="Q21">
+        <v>0.4554624083016667</v>
+      </c>
+      <c r="R21">
+        <v>4.099161674715</v>
+      </c>
+      <c r="S21">
+        <v>0.1045319490219983</v>
+      </c>
+      <c r="T21">
+        <v>0.1045319490219983</v>
       </c>
     </row>
   </sheetData>
